--- a/output/2025-11-21_Loanable_Inventory.xlsx
+++ b/output/2025-11-21_Loanable_Inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="469">
   <si>
     <t>name</t>
   </si>
@@ -37,55 +37,178 @@
     <t>damage_notes</t>
   </si>
   <si>
+    <t>Zoom H4n Pro</t>
+  </si>
+  <si>
+    <t>Canon EOS M50</t>
+  </si>
+  <si>
+    <t>Blue Yeti Nano</t>
+  </si>
+  <si>
+    <t>Zoom LiveTrak L8</t>
+  </si>
+  <si>
+    <t>Sennheiser HD 280 Pro</t>
+  </si>
+  <si>
+    <t>Neewer Lighting Kit (2 Lights, 2 Stands, &amp; 2 Softboxes)</t>
+  </si>
+  <si>
+    <t>Meta Quest 2 (128 GB), VR Headset &amp; Controllers</t>
+  </si>
+  <si>
+    <t>Insta360 One R (4K Edition), 4K Wide-Angle Camera</t>
+  </si>
+  <si>
+    <t>Vbestlife W49, Mini Dimmable LED Light Panel</t>
+  </si>
+  <si>
+    <t>Rode Wireless Go</t>
+  </si>
+  <si>
+    <t>MeFoto RoadTrip Air, Tripod &amp; Selfie Stick</t>
+  </si>
+  <si>
+    <t>Saramonic UwMic9 Kit 2</t>
+  </si>
+  <si>
+    <t>Windscreen for Zoom H4n Pro</t>
+  </si>
+  <si>
+    <t>Apex176 Hypercardioid Shotgun Microphone</t>
+  </si>
+  <si>
+    <t>Puluz 40 cm Foldable LED Ring Light Studio Box, Portable Lightbox</t>
+  </si>
+  <si>
+    <t>Neewer Lighting Single Panel</t>
+  </si>
+  <si>
+    <t>Shure SM58</t>
+  </si>
+  <si>
+    <t>Canon EOS M50 Mark II</t>
+  </si>
+  <si>
+    <t>Canon EF-M 32 mm</t>
+  </si>
+  <si>
+    <t>Meta Quest 2 (256 GB), VR Headset &amp; Controllers</t>
+  </si>
+  <si>
+    <t>Canon EF-M 55-200 mm</t>
+  </si>
+  <si>
+    <t>DJI Osmo Mobile 6, Gimbal for Smartphones</t>
+  </si>
+  <si>
+    <t>Wacom Intuos Medium, Bluetooth Pen Tablet</t>
+  </si>
+  <si>
+    <t>Zoom H6</t>
+  </si>
+  <si>
+    <t>Manfrotto BeFree Advanced, Travel Tripod</t>
+  </si>
+  <si>
+    <t>Audio-Technica AT2005USB</t>
+  </si>
+  <si>
+    <t>Power DeWise Lavalier Microphone</t>
+  </si>
+  <si>
+    <t>SmallRig Mini Tripod</t>
+  </si>
+  <si>
+    <t>Ulanzi Phone Mount</t>
+  </si>
+  <si>
+    <t>Meta Quest 3</t>
+  </si>
+  <si>
+    <t>Neewer Lighting Kit Without Softboxes</t>
+  </si>
+  <si>
+    <t>Canon EOS R50</t>
+  </si>
+  <si>
+    <t>Canon RF-S 55-210mm</t>
+  </si>
+  <si>
+    <t>Canon RF-S 10-18mm</t>
+  </si>
+  <si>
+    <t>Canon RF 50mm</t>
+  </si>
+  <si>
+    <t>Rode Wireless Pro</t>
+  </si>
+  <si>
+    <t>Sony MDR-7506</t>
+  </si>
+  <si>
+    <t>Novation Launchkey Mini MK3</t>
+  </si>
+  <si>
+    <t>Zoom H6essential</t>
+  </si>
+  <si>
+    <t>Rode Wireless ME Dual Ultra-compact Wireless Microphone</t>
+  </si>
+  <si>
+    <t>Mobile Phone Selfie Stick</t>
+  </si>
+  <si>
+    <t>Boom Pole with Mic Mount</t>
+  </si>
+  <si>
+    <t>Neewer Ring Light</t>
+  </si>
+  <si>
+    <t>Canon RF-S 35mm</t>
+  </si>
+  <si>
+    <t>Ulanzi Mini LED Light, VL49 RBG</t>
+  </si>
+  <si>
+    <t>Zoom Podtrak P4</t>
+  </si>
+  <si>
+    <t>Insta360 X4 (8K Action Cam)</t>
+  </si>
+  <si>
     <t>360° Auto Face Tracking Mobile Phone Tripod</t>
   </si>
   <si>
-    <t>Apex176 Hypercardioid Shotgun Microphone</t>
+    <t>Portable LED Light Kit (2 Panel)</t>
   </si>
   <si>
     <t>Aputure Travel LED Light Kit (4 Panel)</t>
   </si>
   <si>
-    <t>Audio-Technica AT2005USB</t>
-  </si>
-  <si>
-    <t>Blue Yeti Nano</t>
-  </si>
-  <si>
-    <t>Boom Pole with Mic Mount</t>
-  </si>
-  <si>
-    <t>Canon EF-M 32 mm</t>
-  </si>
-  <si>
-    <t>Canon EF-M 55-200 mm</t>
-  </si>
-  <si>
-    <t>Canon EOS M50</t>
-  </si>
-  <si>
-    <t>Canon EOS M50 Mark II</t>
-  </si>
-  <si>
-    <t>Canon EOS R50</t>
-  </si>
-  <si>
     <t>Canon EOS R50-V</t>
   </si>
   <si>
-    <t>Canon RF 50mm</t>
-  </si>
-  <si>
-    <t>Canon RF-S 10-18mm</t>
-  </si>
-  <si>
-    <t>Canon RF-S 35mm</t>
-  </si>
-  <si>
-    <t>Canon RF-S 55-210mm</t>
-  </si>
-  <si>
-    <t>DJI Osmo Mobile 6, Gimbal for Smartphones</t>
+    <t>Sigma RF-S 10-18mm F2.8 DC DN</t>
+  </si>
+  <si>
+    <t>Sigma RF-S 18-50mm F2.8 DC DN</t>
+  </si>
+  <si>
+    <t>MKE 600 Shotgun Microphone</t>
+  </si>
+  <si>
+    <t>Rode VideoMic GO</t>
+  </si>
+  <si>
+    <t>Extra Set of SD Cards</t>
+  </si>
+  <si>
+    <t>K&amp;F ND Filter, 55mm</t>
+  </si>
+  <si>
+    <t>K&amp;F ND Filter, 52mm</t>
   </si>
   <si>
     <t>DJI Osmo Pocket 3</t>
@@ -94,133 +217,535 @@
     <t>Extra R50 Battery</t>
   </si>
   <si>
-    <t>Extra Set of SD Cards</t>
-  </si>
-  <si>
-    <t>Insta360 One R (4K Edition), 4K Wide-Angle Camera</t>
-  </si>
-  <si>
-    <t>Insta360 X4 (8K Action Cam)</t>
-  </si>
-  <si>
-    <t>K&amp;F ND Filter, 52mm</t>
-  </si>
-  <si>
-    <t>K&amp;F ND Filter, 55mm</t>
-  </si>
-  <si>
-    <t>Manfrotto BeFree Advanced, Travel Tripod</t>
-  </si>
-  <si>
-    <t>MeFoto RoadTrip Air, Tripod &amp; Selfie Stick</t>
-  </si>
-  <si>
-    <t>Meta Quest 2 (128 GB), VR Headset &amp; Controllers</t>
-  </si>
-  <si>
-    <t>Meta Quest 2 (256 GB), VR Headset &amp; Controllers</t>
-  </si>
-  <si>
-    <t>Meta Quest 3</t>
-  </si>
-  <si>
-    <t>MKE 600 Shotgun Microphone</t>
-  </si>
-  <si>
-    <t>Mobile Phone Selfie Stick</t>
-  </si>
-  <si>
-    <t>Neewer Lighting Kit (2 Lights, 2 Stands, &amp; 2 Softboxes)</t>
-  </si>
-  <si>
-    <t>Neewer Lighting Kit Without Softboxes</t>
-  </si>
-  <si>
-    <t>Neewer Lighting Single Panel</t>
-  </si>
-  <si>
-    <t>Neewer Ring Light</t>
-  </si>
-  <si>
-    <t>Novation Launchkey Mini MK3</t>
-  </si>
-  <si>
-    <t>Portable LED Light Kit (2 Panel)</t>
-  </si>
-  <si>
-    <t>Power DeWise Lavalier Microphone</t>
-  </si>
-  <si>
-    <t>Puluz 40 cm Foldable LED Ring Light Studio Box, Portable Lightbox</t>
-  </si>
-  <si>
     <t>Rode GO (Gen 3)</t>
   </si>
   <si>
-    <t>Rode VideoMic GO</t>
-  </si>
-  <si>
-    <t>Rode Wireless Go</t>
-  </si>
-  <si>
-    <t>Rode Wireless ME Dual Ultra-compact Wireless Microphone</t>
-  </si>
-  <si>
-    <t>Rode Wireless Pro</t>
-  </si>
-  <si>
-    <t>Saramonic UwMic9 Kit 2</t>
-  </si>
-  <si>
-    <t>Sennheiser HD 280 Pro</t>
-  </si>
-  <si>
-    <t>Shure SM58</t>
-  </si>
-  <si>
-    <t>Sigma RF-S 10-18mm F2.8 DC DN</t>
-  </si>
-  <si>
-    <t>Sigma RF-S 18-50mm F2.8 DC DN</t>
-  </si>
-  <si>
-    <t>SmallRig Mini Tripod</t>
-  </si>
-  <si>
-    <t>Sony MDR-7506</t>
-  </si>
-  <si>
     <t>Testing Accordion</t>
   </si>
   <si>
-    <t>Ulanzi Mini LED Light, VL49 RBG</t>
-  </si>
-  <si>
-    <t>Ulanzi Phone Mount</t>
-  </si>
-  <si>
-    <t>Vbestlife W49, Mini Dimmable LED Light Panel</t>
-  </si>
-  <si>
-    <t>Wacom Intuos Medium, Bluetooth Pen Tablet</t>
-  </si>
-  <si>
-    <t>Windscreen for Zoom H4n Pro</t>
-  </si>
-  <si>
-    <t>Zoom H4n Pro</t>
-  </si>
-  <si>
-    <t>Zoom H6</t>
-  </si>
-  <si>
-    <t>Zoom H6essential</t>
-  </si>
-  <si>
-    <t>Zoom LiveTrak L8</t>
-  </si>
-  <si>
-    <t>Zoom Podtrak P4</t>
+    <t>39007054930102</t>
+  </si>
+  <si>
+    <t>39007054930235</t>
+  </si>
+  <si>
+    <t>39007054930086</t>
+  </si>
+  <si>
+    <t>39007054930094</t>
+  </si>
+  <si>
+    <t>39007054930433</t>
+  </si>
+  <si>
+    <t>39007054930516</t>
+  </si>
+  <si>
+    <t>39007054930490</t>
+  </si>
+  <si>
+    <t>39007054930524</t>
+  </si>
+  <si>
+    <t>39007054930441</t>
+  </si>
+  <si>
+    <t>39007054930060</t>
+  </si>
+  <si>
+    <t>39007054930052</t>
+  </si>
+  <si>
+    <t>39007054930037</t>
+  </si>
+  <si>
+    <t>39007054930029</t>
+  </si>
+  <si>
+    <t>39007054930011</t>
+  </si>
+  <si>
+    <t>39007054930201</t>
+  </si>
+  <si>
+    <t>39007054930219</t>
+  </si>
+  <si>
+    <t>39007054930243</t>
+  </si>
+  <si>
+    <t>39007054930250</t>
+  </si>
+  <si>
+    <t>39007054930268</t>
+  </si>
+  <si>
+    <t>39007054930276</t>
+  </si>
+  <si>
+    <t>39007054930284</t>
+  </si>
+  <si>
+    <t>39007054930292</t>
+  </si>
+  <si>
+    <t>39007054930300</t>
+  </si>
+  <si>
+    <t>39007054930318</t>
+  </si>
+  <si>
+    <t>39007054930326</t>
+  </si>
+  <si>
+    <t>39007054930425</t>
+  </si>
+  <si>
+    <t>39007054930458</t>
+  </si>
+  <si>
+    <t>39007054930474</t>
+  </si>
+  <si>
+    <t>39007054930482</t>
+  </si>
+  <si>
+    <t>39007054930599</t>
+  </si>
+  <si>
+    <t>39007054930581</t>
+  </si>
+  <si>
+    <t>39007054930623</t>
+  </si>
+  <si>
+    <t>39007054930656</t>
+  </si>
+  <si>
+    <t>39007054930714</t>
+  </si>
+  <si>
+    <t>39007054930722</t>
+  </si>
+  <si>
+    <t>39007054930540</t>
+  </si>
+  <si>
+    <t>39007054930557</t>
+  </si>
+  <si>
+    <t>39007054930730</t>
+  </si>
+  <si>
+    <t>39007054931266</t>
+  </si>
+  <si>
+    <t>39007054931258</t>
+  </si>
+  <si>
+    <t>39007054931241</t>
+  </si>
+  <si>
+    <t>39007054931233</t>
+  </si>
+  <si>
+    <t>39007054931225</t>
+  </si>
+  <si>
+    <t>39007054931308</t>
+  </si>
+  <si>
+    <t>39007054931274</t>
+  </si>
+  <si>
+    <t>39007054931316</t>
+  </si>
+  <si>
+    <t>39007054932165</t>
+  </si>
+  <si>
+    <t>39007054933015</t>
+  </si>
+  <si>
+    <t>39007054933023</t>
+  </si>
+  <si>
+    <t>39007054933049</t>
+  </si>
+  <si>
+    <t>39007054933056</t>
+  </si>
+  <si>
+    <t>39007054933064</t>
+  </si>
+  <si>
+    <t>39007054933072</t>
+  </si>
+  <si>
+    <t>39007054933080</t>
+  </si>
+  <si>
+    <t>39007054933106</t>
+  </si>
+  <si>
+    <t>39007054933114</t>
+  </si>
+  <si>
+    <t>39007054933122</t>
+  </si>
+  <si>
+    <t>39007054933213</t>
+  </si>
+  <si>
+    <t>39007054933221</t>
+  </si>
+  <si>
+    <t>39007054933239</t>
+  </si>
+  <si>
+    <t>39007054933247</t>
+  </si>
+  <si>
+    <t>39007054933130</t>
+  </si>
+  <si>
+    <t>39007054933148</t>
+  </si>
+  <si>
+    <t>39007054933155</t>
+  </si>
+  <si>
+    <t>39007054933163</t>
+  </si>
+  <si>
+    <t>39007054933171</t>
+  </si>
+  <si>
+    <t>39007054933189</t>
+  </si>
+  <si>
+    <t>39007054933197</t>
+  </si>
+  <si>
+    <t>39007054933254</t>
+  </si>
+  <si>
+    <t>39007054933262</t>
+  </si>
+  <si>
+    <t>39007054933270</t>
+  </si>
+  <si>
+    <t>39007054933288</t>
+  </si>
+  <si>
+    <t>39007054933304</t>
+  </si>
+  <si>
+    <t>39007054933320</t>
+  </si>
+  <si>
+    <t>39007054933379</t>
+  </si>
+  <si>
+    <t>39007054933353</t>
+  </si>
+  <si>
+    <t>39007054933361</t>
+  </si>
+  <si>
+    <t>39007054933387</t>
+  </si>
+  <si>
+    <t>39007054933395</t>
+  </si>
+  <si>
+    <t>39007054933403</t>
+  </si>
+  <si>
+    <t>39007054933411</t>
+  </si>
+  <si>
+    <t>39007054933429</t>
+  </si>
+  <si>
+    <t>39007054933486</t>
+  </si>
+  <si>
+    <t>39007054933445</t>
+  </si>
+  <si>
+    <t>39007054933452</t>
+  </si>
+  <si>
+    <t>39007054933460</t>
+  </si>
+  <si>
+    <t>39007054933767</t>
+  </si>
+  <si>
+    <t>39007054933775</t>
+  </si>
+  <si>
+    <t>39007054933783</t>
+  </si>
+  <si>
+    <t>39007054933791</t>
+  </si>
+  <si>
+    <t>39007054933809</t>
+  </si>
+  <si>
+    <t>39007054933734</t>
+  </si>
+  <si>
+    <t>39007054933742</t>
+  </si>
+  <si>
+    <t>39007054933726</t>
+  </si>
+  <si>
+    <t>39007054933700</t>
+  </si>
+  <si>
+    <t>39007054933619</t>
+  </si>
+  <si>
+    <t>39007054933627</t>
+  </si>
+  <si>
+    <t>39007054933635</t>
+  </si>
+  <si>
+    <t>39007054933643</t>
+  </si>
+  <si>
+    <t>39007054933650</t>
+  </si>
+  <si>
+    <t>39007054933668</t>
+  </si>
+  <si>
+    <t>39007054933676</t>
+  </si>
+  <si>
+    <t>39007054933684</t>
+  </si>
+  <si>
+    <t>39007054933692</t>
+  </si>
+  <si>
+    <t>39007054933825</t>
+  </si>
+  <si>
+    <t>39007054933841</t>
+  </si>
+  <si>
+    <t>39007054933833</t>
+  </si>
+  <si>
+    <t>39007054933858</t>
+  </si>
+  <si>
+    <t>39007054933866</t>
+  </si>
+  <si>
+    <t>39007054933874</t>
+  </si>
+  <si>
+    <t>39007054933882</t>
+  </si>
+  <si>
+    <t>39007054933890</t>
+  </si>
+  <si>
+    <t>39007054933908</t>
+  </si>
+  <si>
+    <t>39007054933916</t>
+  </si>
+  <si>
+    <t>39007054933759</t>
+  </si>
+  <si>
+    <t>39007054931464</t>
+  </si>
+  <si>
+    <t>39007054931357</t>
+  </si>
+  <si>
+    <t>39007054931472</t>
+  </si>
+  <si>
+    <t>39007054931456</t>
+  </si>
+  <si>
+    <t>39007054933965</t>
+  </si>
+  <si>
+    <t>39007054931662</t>
+  </si>
+  <si>
+    <t>39007054931647</t>
+  </si>
+  <si>
+    <t>39007054931563</t>
+  </si>
+  <si>
+    <t>39007054931670</t>
+  </si>
+  <si>
+    <t>39007054931548</t>
+  </si>
+  <si>
+    <t>39007054931555</t>
+  </si>
+  <si>
+    <t>39007054931688</t>
+  </si>
+  <si>
+    <t>39007054931530</t>
+  </si>
+  <si>
+    <t>39007054931522</t>
+  </si>
+  <si>
+    <t>39007054933924</t>
+  </si>
+  <si>
+    <t>39007054933940</t>
+  </si>
+  <si>
+    <t>39007054933957</t>
+  </si>
+  <si>
+    <t>39007054931373</t>
+  </si>
+  <si>
+    <t>39007054931399</t>
+  </si>
+  <si>
+    <t>39007054931381</t>
+  </si>
+  <si>
+    <t>39007054931449</t>
+  </si>
+  <si>
+    <t>39007054931423</t>
+  </si>
+  <si>
+    <t>39007054930748</t>
+  </si>
+  <si>
+    <t>39007054931415</t>
+  </si>
+  <si>
+    <t>39007054931431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  39007054931498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39007054931480</t>
+  </si>
+  <si>
+    <t>39007054932116</t>
+  </si>
+  <si>
+    <t>39007054932132</t>
+  </si>
+  <si>
+    <t>39007054932140</t>
+  </si>
+  <si>
+    <t>39007054932157</t>
+  </si>
+  <si>
+    <t>39007054932173</t>
+  </si>
+  <si>
+    <t>39007054932231</t>
+  </si>
+  <si>
+    <t>39007054932223</t>
+  </si>
+  <si>
+    <t>39007054932215</t>
+  </si>
+  <si>
+    <t>39007054932207</t>
+  </si>
+  <si>
+    <t>39007054932199</t>
+  </si>
+  <si>
+    <t>39007054932181</t>
+  </si>
+  <si>
+    <t>39007054932249</t>
+  </si>
+  <si>
+    <t>39007054932256</t>
+  </si>
+  <si>
+    <t>39007054932264</t>
+  </si>
+  <si>
+    <t>39007054932272</t>
+  </si>
+  <si>
+    <t>39007054932280</t>
+  </si>
+  <si>
+    <t>39007054932298</t>
+  </si>
+  <si>
+    <t>39007054932397</t>
+  </si>
+  <si>
+    <t>39007054932389</t>
+  </si>
+  <si>
+    <t>39007054932405</t>
+  </si>
+  <si>
+    <t>39007054932314</t>
+  </si>
+  <si>
+    <t>39007054932306</t>
+  </si>
+  <si>
+    <t>39007054932322</t>
+  </si>
+  <si>
+    <t>39007054932330</t>
+  </si>
+  <si>
+    <t>39007054932371</t>
+  </si>
+  <si>
+    <t>39007054932353</t>
+  </si>
+  <si>
+    <t>39007054932355</t>
+  </si>
+  <si>
+    <t>39007054932348</t>
+  </si>
+  <si>
+    <t>39007054936042</t>
+  </si>
+  <si>
+    <t>39007054936018</t>
+  </si>
+  <si>
+    <t>39007054936034</t>
+  </si>
+  <si>
+    <t>39007054936026</t>
+  </si>
+  <si>
+    <t>39007054936059</t>
   </si>
   <si>
     <t>39007054936075</t>
@@ -235,159 +760,24 @@
     <t>39007054936067</t>
   </si>
   <si>
-    <t>39007054931308</t>
+    <t>39007054936117</t>
+  </si>
+  <si>
+    <t>39007054936109</t>
+  </si>
+  <si>
+    <t>39007054936125</t>
   </si>
   <si>
     <t>39007054936208</t>
   </si>
   <si>
-    <t>39007054933445</t>
-  </si>
-  <si>
-    <t>39007054933452</t>
-  </si>
-  <si>
-    <t>39007054933460</t>
-  </si>
-  <si>
-    <t>39007054931449</t>
-  </si>
-  <si>
-    <t>39007054931423</t>
-  </si>
-  <si>
-    <t>39007054930748</t>
-  </si>
-  <si>
-    <t>39007054931415</t>
-  </si>
-  <si>
-    <t>39007054931431</t>
-  </si>
-  <si>
-    <t>39007054930433</t>
-  </si>
-  <si>
-    <t>39007054930441</t>
-  </si>
-  <si>
-    <t>39007054930458</t>
-  </si>
-  <si>
-    <t>39007054933130</t>
-  </si>
-  <si>
-    <t>39007054933148</t>
-  </si>
-  <si>
-    <t>39007054933155</t>
-  </si>
-  <si>
-    <t>39007054933163</t>
-  </si>
-  <si>
-    <t>39007054933171</t>
-  </si>
-  <si>
-    <t>39007054933189</t>
-  </si>
-  <si>
-    <t>39007054932272</t>
-  </si>
-  <si>
     <t>39007054936133</t>
   </si>
   <si>
     <t>39007054936216</t>
   </si>
   <si>
-    <t>39007054933064</t>
-  </si>
-  <si>
-    <t>39007054933072</t>
-  </si>
-  <si>
-    <t>39007054933080</t>
-  </si>
-  <si>
-    <t>39007054933106</t>
-  </si>
-  <si>
-    <t>39007054933254</t>
-  </si>
-  <si>
-    <t>39007054933262</t>
-  </si>
-  <si>
-    <t>39007054933270</t>
-  </si>
-  <si>
-    <t>39007054930235</t>
-  </si>
-  <si>
-    <t>39007054930243</t>
-  </si>
-  <si>
-    <t>39007054930250</t>
-  </si>
-  <si>
-    <t>39007054930268</t>
-  </si>
-  <si>
-    <t>39007054930276</t>
-  </si>
-  <si>
-    <t>39007054930284</t>
-  </si>
-  <si>
-    <t>39007054930292</t>
-  </si>
-  <si>
-    <t>39007054930300</t>
-  </si>
-  <si>
-    <t>39007054930318</t>
-  </si>
-  <si>
-    <t>39007054930326</t>
-  </si>
-  <si>
-    <t>39007054933015</t>
-  </si>
-  <si>
-    <t>39007054933023</t>
-  </si>
-  <si>
-    <t>39007054933049</t>
-  </si>
-  <si>
-    <t>39007054933056</t>
-  </si>
-  <si>
-    <t>39007054931464</t>
-  </si>
-  <si>
-    <t>39007054931357</t>
-  </si>
-  <si>
-    <t>39007054931472</t>
-  </si>
-  <si>
-    <t>39007054931456</t>
-  </si>
-  <si>
-    <t>39007054933965</t>
-  </si>
-  <si>
-    <t>39007054932249</t>
-  </si>
-  <si>
-    <t>39007054932256</t>
-  </si>
-  <si>
-    <t>39007054932264</t>
-  </si>
-  <si>
     <t>39007054936190</t>
   </si>
   <si>
@@ -406,52 +796,73 @@
     <t>39007054936141</t>
   </si>
   <si>
-    <t>39007054931555</t>
-  </si>
-  <si>
-    <t>39007054931688</t>
-  </si>
-  <si>
-    <t>39007054931530</t>
-  </si>
-  <si>
-    <t>39007054931522</t>
-  </si>
-  <si>
-    <t>39007054931563</t>
-  </si>
-  <si>
-    <t>39007054931670</t>
-  </si>
-  <si>
-    <t>39007054931548</t>
-  </si>
-  <si>
-    <t>39007054932397</t>
-  </si>
-  <si>
-    <t>39007054932389</t>
-  </si>
-  <si>
-    <t>39007054932405</t>
-  </si>
-  <si>
-    <t>39007054931662</t>
-  </si>
-  <si>
-    <t>39007054931647</t>
-  </si>
-  <si>
-    <t>39007054932314</t>
-  </si>
-  <si>
-    <t>39007054932306</t>
-  </si>
-  <si>
-    <t>39007054932322</t>
-  </si>
-  <si>
-    <t>39007054933288</t>
+    <t>39007054936331</t>
+  </si>
+  <si>
+    <t>39007054936356</t>
+  </si>
+  <si>
+    <t>39007054936349</t>
+  </si>
+  <si>
+    <t>39007054936364</t>
+  </si>
+  <si>
+    <t>39007054936299</t>
+  </si>
+  <si>
+    <t>39007054936307</t>
+  </si>
+  <si>
+    <t>39007054936232</t>
+  </si>
+  <si>
+    <t>39007054936224</t>
+  </si>
+  <si>
+    <t>39007054936240</t>
+  </si>
+  <si>
+    <t>39007054936372</t>
+  </si>
+  <si>
+    <t>39007054936315</t>
+  </si>
+  <si>
+    <t>39007054936323</t>
+  </si>
+  <si>
+    <t>39007054936257</t>
+  </si>
+  <si>
+    <t>39007054936265</t>
+  </si>
+  <si>
+    <t>39007054936273</t>
+  </si>
+  <si>
+    <t>39007054936281</t>
+  </si>
+  <si>
+    <t>39007054936455</t>
+  </si>
+  <si>
+    <t>39007054936430</t>
+  </si>
+  <si>
+    <t>39007054936406</t>
+  </si>
+  <si>
+    <t>39007054936414</t>
+  </si>
+  <si>
+    <t>39007054936398</t>
+  </si>
+  <si>
+    <t>39007054936422</t>
+  </si>
+  <si>
+    <t>39007054936448</t>
   </si>
   <si>
     <t>39007054936604</t>
@@ -481,423 +892,18 @@
     <t>39007054936554</t>
   </si>
   <si>
-    <t>39007054936257</t>
-  </si>
-  <si>
-    <t>39007054936265</t>
-  </si>
-  <si>
-    <t>39007054936273</t>
-  </si>
-  <si>
-    <t>39007054936281</t>
-  </si>
-  <si>
-    <t>39007054930425</t>
-  </si>
-  <si>
-    <t>39007054933114</t>
-  </si>
-  <si>
-    <t>39007054933122</t>
-  </si>
-  <si>
-    <t>39007054936026</t>
-  </si>
-  <si>
-    <t>39007054936059</t>
-  </si>
-  <si>
-    <t>39007054936414</t>
-  </si>
-  <si>
-    <t>39007054936398</t>
-  </si>
-  <si>
-    <t>39007054936422</t>
-  </si>
-  <si>
-    <t>39007054936455</t>
-  </si>
-  <si>
-    <t>39007054936430</t>
-  </si>
-  <si>
-    <t>39007054936406</t>
-  </si>
-  <si>
-    <t>39007054933379</t>
-  </si>
-  <si>
-    <t>39007054933353</t>
-  </si>
-  <si>
-    <t>39007054933361</t>
-  </si>
-  <si>
-    <t>39007054933387</t>
-  </si>
-  <si>
-    <t>39007054933395</t>
-  </si>
-  <si>
-    <t>39007054933403</t>
-  </si>
-  <si>
-    <t>39007054933411</t>
-  </si>
-  <si>
-    <t>39007054933429</t>
-  </si>
-  <si>
-    <t>39007054933486</t>
-  </si>
-  <si>
-    <t>39007054930722</t>
-  </si>
-  <si>
-    <t>39007054930540</t>
-  </si>
-  <si>
-    <t>39007054930557</t>
-  </si>
-  <si>
-    <t>39007054930201</t>
-  </si>
-  <si>
-    <t>39007054930219</t>
-  </si>
-  <si>
-    <t>39007054933213</t>
-  </si>
-  <si>
-    <t>39007054933221</t>
-  </si>
-  <si>
-    <t>39007054933239</t>
-  </si>
-  <si>
-    <t>39007054933247</t>
-  </si>
-  <si>
-    <t>39007054933197</t>
-  </si>
-  <si>
-    <t>39007054933841</t>
-  </si>
-  <si>
-    <t>39007054933833</t>
-  </si>
-  <si>
-    <t>39007054933858</t>
-  </si>
-  <si>
-    <t>39007054933866</t>
-  </si>
-  <si>
-    <t>39007054933874</t>
-  </si>
-  <si>
-    <t>39007054933882</t>
-  </si>
-  <si>
-    <t>39007054933890</t>
-  </si>
-  <si>
-    <t>39007054933908</t>
-  </si>
-  <si>
-    <t>39007054933916</t>
-  </si>
-  <si>
-    <t>39007054936299</t>
-  </si>
-  <si>
-    <t>39007054936307</t>
-  </si>
-  <si>
-    <t>39007054932173</t>
-  </si>
-  <si>
-    <t>39007054932231</t>
-  </si>
-  <si>
-    <t>39007054932223</t>
-  </si>
-  <si>
-    <t>39007054932215</t>
-  </si>
-  <si>
-    <t>39007054932207</t>
-  </si>
-  <si>
-    <t>39007054932199</t>
-  </si>
-  <si>
-    <t>39007054932181</t>
-  </si>
-  <si>
-    <t>39007054930524</t>
-  </si>
-  <si>
-    <t>39007054933759</t>
-  </si>
-  <si>
-    <t>39007054931316</t>
-  </si>
-  <si>
-    <t>39007054932280</t>
-  </si>
-  <si>
-    <t>39007054932298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  39007054931498</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39007054931480</t>
-  </si>
-  <si>
-    <t>39007054936125</t>
-  </si>
-  <si>
-    <t>39007054933767</t>
-  </si>
-  <si>
-    <t>39007054933775</t>
-  </si>
-  <si>
-    <t>39007054933783</t>
-  </si>
-  <si>
-    <t>39007054933791</t>
-  </si>
-  <si>
-    <t>39007054933809</t>
-  </si>
-  <si>
-    <t>39007054931274</t>
-  </si>
-  <si>
     <t>39007054936612</t>
   </si>
   <si>
     <t>39007054936570</t>
   </si>
   <si>
-    <t>39007054936372</t>
-  </si>
-  <si>
-    <t>39007054936315</t>
-  </si>
-  <si>
-    <t>39007054936323</t>
-  </si>
-  <si>
-    <t>39007054930623</t>
-  </si>
-  <si>
-    <t>39007054930656</t>
-  </si>
-  <si>
-    <t>39007054930714</t>
-  </si>
-  <si>
-    <t>39007054932132</t>
-  </si>
-  <si>
-    <t>39007054932140</t>
-  </si>
-  <si>
-    <t>39007054932157</t>
-  </si>
-  <si>
-    <t>39007054933924</t>
-  </si>
-  <si>
-    <t>39007054933940</t>
-  </si>
-  <si>
-    <t>39007054933957</t>
-  </si>
-  <si>
-    <t>39007054930730</t>
-  </si>
-  <si>
-    <t>39007054930490</t>
-  </si>
-  <si>
-    <t>39007054930474</t>
-  </si>
-  <si>
-    <t>39007054930482</t>
-  </si>
-  <si>
-    <t>39007054932165</t>
-  </si>
-  <si>
-    <t>39007054936117</t>
-  </si>
-  <si>
-    <t>39007054936109</t>
-  </si>
-  <si>
-    <t>39007054936331</t>
-  </si>
-  <si>
-    <t>39007054936356</t>
-  </si>
-  <si>
-    <t>39007054936349</t>
-  </si>
-  <si>
-    <t>39007054936364</t>
-  </si>
-  <si>
-    <t>39007054933734</t>
-  </si>
-  <si>
-    <t>39007054933742</t>
-  </si>
-  <si>
-    <t>39007054933726</t>
-  </si>
-  <si>
-    <t>39007054933700</t>
-  </si>
-  <si>
-    <t>39007054931373</t>
-  </si>
-  <si>
-    <t>39007054931399</t>
-  </si>
-  <si>
-    <t>39007054931381</t>
-  </si>
-  <si>
-    <t>39007054932330</t>
-  </si>
-  <si>
-    <t>39007054932371</t>
-  </si>
-  <si>
-    <t>39007054932353</t>
-  </si>
-  <si>
-    <t>39007054932355</t>
-  </si>
-  <si>
-    <t>39007054933619</t>
-  </si>
-  <si>
-    <t>39007054933627</t>
-  </si>
-  <si>
-    <t>39007054933643</t>
-  </si>
-  <si>
-    <t>39007054933650</t>
-  </si>
-  <si>
-    <t>39007054933668</t>
-  </si>
-  <si>
-    <t>39007054933676</t>
-  </si>
-  <si>
-    <t>39007054933684</t>
-  </si>
-  <si>
-    <t>39007054933692</t>
-  </si>
-  <si>
-    <t>39007054933825</t>
-  </si>
-  <si>
-    <t>39007054930599</t>
-  </si>
-  <si>
-    <t>39007054930581</t>
-  </si>
-  <si>
-    <t>39007054933304</t>
-  </si>
-  <si>
-    <t>39007054931266</t>
-  </si>
-  <si>
-    <t>39007054931258</t>
-  </si>
-  <si>
-    <t>39007054931241</t>
-  </si>
-  <si>
-    <t>39007054931233</t>
-  </si>
-  <si>
-    <t>39007054931225</t>
-  </si>
-  <si>
-    <t>39007054930102</t>
-  </si>
-  <si>
-    <t>39007054930086</t>
-  </si>
-  <si>
-    <t>39007054930094</t>
-  </si>
-  <si>
-    <t>39007054930060</t>
-  </si>
-  <si>
-    <t>39007054930052</t>
-  </si>
-  <si>
-    <t>39007054930037</t>
-  </si>
-  <si>
-    <t>39007054930029</t>
-  </si>
-  <si>
-    <t>39007054930011</t>
-  </si>
-  <si>
-    <t>39007054936240</t>
-  </si>
-  <si>
-    <t>39007054933320</t>
-  </si>
-  <si>
-    <t>39007054932116</t>
-  </si>
-  <si>
-    <t>39007054936232</t>
-  </si>
-  <si>
-    <t>39007054936224</t>
-  </si>
-  <si>
-    <t>39007054930516</t>
-  </si>
-  <si>
-    <t>39007054936448</t>
-  </si>
-  <si>
-    <t>39007054932348</t>
-  </si>
-  <si>
-    <t>39007054936042</t>
-  </si>
-  <si>
-    <t>39007054936018</t>
-  </si>
-  <si>
-    <t>39007054936034</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -910,24 +916,21 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -937,96 +940,333 @@
     <t>14</t>
   </si>
   <si>
+    <t>C41023119</t>
+  </si>
+  <si>
+    <t>022040002797</t>
+  </si>
+  <si>
+    <t>C41019302</t>
+  </si>
+  <si>
+    <t>C41031620</t>
+  </si>
+  <si>
     <t>1951FX001A19</t>
   </si>
   <si>
+    <t>C48010735</t>
+  </si>
+  <si>
+    <t>5300955568</t>
+  </si>
+  <si>
+    <t>10095541</t>
+  </si>
+  <si>
     <t>2015MN023599</t>
   </si>
   <si>
+    <t>C41023113</t>
+  </si>
+  <si>
+    <t>C41023646</t>
+  </si>
+  <si>
+    <t>C41019306</t>
+  </si>
+  <si>
+    <t>C41031618</t>
+  </si>
+  <si>
+    <t>C41020756</t>
+  </si>
+  <si>
+    <t>1WMHCL118Q1503</t>
+  </si>
+  <si>
+    <t>1WMHCLH1NA1503</t>
+  </si>
+  <si>
+    <t>092030001146</t>
+  </si>
+  <si>
+    <t>092030001059</t>
+  </si>
+  <si>
+    <t>092030001142</t>
+  </si>
+  <si>
+    <t>092030001058</t>
+  </si>
+  <si>
+    <t>022040002800</t>
+  </si>
+  <si>
+    <t>092030001055</t>
+  </si>
+  <si>
+    <t>092030001053</t>
+  </si>
+  <si>
+    <t>022040002799</t>
+  </si>
+  <si>
+    <t>092030001144</t>
+  </si>
+  <si>
+    <t>IAEAH14BRWSRX9</t>
+  </si>
+  <si>
     <t>2015MN023379</t>
   </si>
   <si>
+    <t>5300955612</t>
+  </si>
+  <si>
+    <t>5300956784</t>
+  </si>
+  <si>
+    <t>FN00377103</t>
+  </si>
+  <si>
+    <t>FN00376727</t>
+  </si>
+  <si>
+    <t>FN0037617</t>
+  </si>
+  <si>
+    <t>10083677</t>
+  </si>
+  <si>
+    <t>10083676</t>
+  </si>
+  <si>
+    <t>10083620</t>
+  </si>
+  <si>
+    <t>292054001516</t>
+  </si>
+  <si>
+    <t>262054003365</t>
+  </si>
+  <si>
+    <t>262054003364</t>
+  </si>
+  <si>
+    <t>262054003363</t>
+  </si>
+  <si>
+    <t>1WMHCLE3FE2213</t>
+  </si>
+  <si>
+    <t>1WMHCRA28X2164</t>
+  </si>
+  <si>
+    <t>1WMHCRA3ZA2163</t>
+  </si>
+  <si>
+    <t>1WMHCRA0ZS2164</t>
+  </si>
+  <si>
+    <t>213906002416</t>
+  </si>
+  <si>
+    <t>2139066002415</t>
+  </si>
+  <si>
+    <t>2139066002419</t>
+  </si>
+  <si>
+    <t>5W3VM22B04206K1L</t>
+  </si>
+  <si>
+    <t>1KE00U2001715</t>
+  </si>
+  <si>
+    <t>C50103519</t>
+  </si>
+  <si>
+    <t>F3065236</t>
+  </si>
+  <si>
+    <t>F3064274</t>
+  </si>
+  <si>
+    <t>F3065881</t>
+  </si>
+  <si>
+    <t>F3061343</t>
+  </si>
+  <si>
+    <t>F3065254</t>
+  </si>
+  <si>
+    <t>F3065262</t>
+  </si>
+  <si>
+    <t>F3064259</t>
+  </si>
+  <si>
+    <t>F3065252</t>
+  </si>
+  <si>
+    <t>A7127825</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2G0YC1ZF8N00QB</t>
+  </si>
+  <si>
+    <t>2G0YC1ZF9Q0QNH</t>
+  </si>
+  <si>
+    <t>2G0YC1ZF9M07PG</t>
+  </si>
+  <si>
+    <t>2G0YC1ZF9N04J2</t>
+  </si>
+  <si>
+    <t>2G0YC1ZF9L0BB8</t>
+  </si>
+  <si>
+    <t>2G0YC1ZF8N05LL</t>
+  </si>
+  <si>
+    <t>2G0YC1ZF8M0KD5</t>
+  </si>
+  <si>
+    <t>2G0YC1ZF8N01D6</t>
+  </si>
+  <si>
+    <t>162070011044</t>
+  </si>
+  <si>
+    <t>162070011047</t>
+  </si>
+  <si>
+    <t>162070011045</t>
+  </si>
+  <si>
+    <t>162070011043</t>
+  </si>
+  <si>
+    <t>162070032842</t>
+  </si>
+  <si>
+    <t>3712001739</t>
+  </si>
+  <si>
+    <t>3712001798</t>
+  </si>
+  <si>
+    <t>3701002378</t>
+  </si>
+  <si>
+    <t>3701002310</t>
+  </si>
+  <si>
+    <t>3701002249</t>
+  </si>
+  <si>
+    <t>2611015748</t>
+  </si>
+  <si>
+    <t>2611014060</t>
+  </si>
+  <si>
+    <t>2611015729</t>
+  </si>
+  <si>
+    <t>2611013997</t>
+  </si>
+  <si>
+    <t>JK0110362</t>
+  </si>
+  <si>
+    <t>JK0110426</t>
+  </si>
+  <si>
+    <t>JK0110361</t>
+  </si>
+  <si>
+    <t>A45B3M934314AE</t>
+  </si>
+  <si>
+    <t>A4PAJA834314E9</t>
+  </si>
+  <si>
+    <t>D01004438</t>
+  </si>
+  <si>
+    <t>KC0008600</t>
+  </si>
+  <si>
+    <t>KC0009727</t>
+  </si>
+  <si>
+    <t>KC0009706</t>
+  </si>
+  <si>
+    <t>242030001037</t>
+  </si>
+  <si>
+    <t>242030001038</t>
+  </si>
+  <si>
+    <t>242030001075</t>
+  </si>
+  <si>
     <t>X002XKUKNX</t>
   </si>
   <si>
+    <t>4972002135</t>
+  </si>
+  <si>
+    <t>4972002138</t>
+  </si>
+  <si>
+    <t>4972002136</t>
+  </si>
+  <si>
+    <t>4842011934</t>
+  </si>
+  <si>
+    <t>4842011932</t>
+  </si>
+  <si>
+    <t>4842011931</t>
+  </si>
+  <si>
+    <t>C54108377</t>
+  </si>
+  <si>
+    <t>C54109137</t>
+  </si>
+  <si>
+    <t>C54110264</t>
+  </si>
+  <si>
+    <t>C54109132</t>
+  </si>
+  <si>
+    <t>IBMEA2502BX674</t>
+  </si>
+  <si>
+    <t>IBMEA2502B3Y9T</t>
+  </si>
+  <si>
+    <t>2EC06143197</t>
+  </si>
+  <si>
+    <t>2EC06129961</t>
+  </si>
+  <si>
     <t>10088311</t>
   </si>
   <si>
-    <t>213906002416</t>
-  </si>
-  <si>
-    <t>2139066002415</t>
-  </si>
-  <si>
-    <t>2139066002419</t>
-  </si>
-  <si>
-    <t>022040002797</t>
-  </si>
-  <si>
-    <t>092030001146</t>
-  </si>
-  <si>
-    <t>092030001059</t>
-  </si>
-  <si>
-    <t>092030001142</t>
-  </si>
-  <si>
-    <t>092030001058</t>
-  </si>
-  <si>
-    <t>022040002800</t>
-  </si>
-  <si>
-    <t>092030001055</t>
-  </si>
-  <si>
-    <t>092030001053</t>
-  </si>
-  <si>
-    <t>022040002799</t>
-  </si>
-  <si>
-    <t>092030001144</t>
-  </si>
-  <si>
-    <t>292054001516</t>
-  </si>
-  <si>
-    <t>262054003365</t>
-  </si>
-  <si>
-    <t>262054003364</t>
-  </si>
-  <si>
-    <t>262054003363</t>
-  </si>
-  <si>
-    <t>162070011044</t>
-  </si>
-  <si>
-    <t>162070011047</t>
-  </si>
-  <si>
-    <t>162070011045</t>
-  </si>
-  <si>
-    <t>162070011043</t>
-  </si>
-  <si>
-    <t>162070032842</t>
-  </si>
-  <si>
-    <t>242030001037</t>
-  </si>
-  <si>
-    <t>242030001038</t>
-  </si>
-  <si>
-    <t>242030001075</t>
-  </si>
-  <si>
     <t>150202003989</t>
   </si>
   <si>
@@ -1045,52 +1285,34 @@
     <t>150202003986</t>
   </si>
   <si>
-    <t>2611015748</t>
-  </si>
-  <si>
-    <t>2611014060</t>
-  </si>
-  <si>
-    <t>2611015729</t>
-  </si>
-  <si>
-    <t>2611013997</t>
-  </si>
-  <si>
-    <t>3701002378</t>
-  </si>
-  <si>
-    <t>3701002310</t>
-  </si>
-  <si>
-    <t>3701002249</t>
-  </si>
-  <si>
-    <t>4972002135</t>
-  </si>
-  <si>
-    <t>4972002138</t>
-  </si>
-  <si>
-    <t>4972002136</t>
-  </si>
-  <si>
-    <t>3712001739</t>
-  </si>
-  <si>
-    <t>3712001798</t>
-  </si>
-  <si>
-    <t>4842011934</t>
-  </si>
-  <si>
-    <t>4842011932</t>
-  </si>
-  <si>
-    <t>4842011931</t>
-  </si>
-  <si>
-    <t>5W3VM22B04206K1L</t>
+    <t>58191157</t>
+  </si>
+  <si>
+    <t>58268876</t>
+  </si>
+  <si>
+    <t>58327372</t>
+  </si>
+  <si>
+    <t>58327490</t>
+  </si>
+  <si>
+    <t>265131</t>
+  </si>
+  <si>
+    <t>D01034069</t>
+  </si>
+  <si>
+    <t>D01034070</t>
+  </si>
+  <si>
+    <t>D05031234</t>
+  </si>
+  <si>
+    <t>HA0219042</t>
+  </si>
+  <si>
+    <t>HA0219052</t>
   </si>
   <si>
     <t>5WTZN4K00246E2</t>
@@ -1102,310 +1324,82 @@
     <t>5WTZN4M0026GRN</t>
   </si>
   <si>
-    <t>IAEAH14BRWSRX9</t>
-  </si>
-  <si>
-    <t>IBMEA2502BX674</t>
-  </si>
-  <si>
-    <t>IBMEA2502B3Y9T</t>
-  </si>
-  <si>
-    <t>F3065236</t>
-  </si>
-  <si>
-    <t>F3064274</t>
-  </si>
-  <si>
-    <t>F3065881</t>
-  </si>
-  <si>
-    <t>F3061343</t>
-  </si>
-  <si>
-    <t>F3065254</t>
-  </si>
-  <si>
-    <t>F3065262</t>
-  </si>
-  <si>
-    <t>F3064259</t>
-  </si>
-  <si>
-    <t>F3065252</t>
-  </si>
-  <si>
-    <t>A7127825</t>
-  </si>
-  <si>
-    <t>10083677</t>
-  </si>
-  <si>
-    <t>10083676</t>
-  </si>
-  <si>
-    <t>10083620</t>
-  </si>
-  <si>
-    <t>1WMHCL118Q1503</t>
-  </si>
-  <si>
-    <t>1WMHCLH1NA1503</t>
-  </si>
-  <si>
-    <t>1WMHCLE3FE2213</t>
-  </si>
-  <si>
-    <t>1WMHCRA28X2164</t>
-  </si>
-  <si>
-    <t>1WMHCRA3ZA2163</t>
-  </si>
-  <si>
-    <t>1WMHCRA0ZS2164</t>
-  </si>
-  <si>
-    <t>2G0YC1ZF8N00QB</t>
-  </si>
-  <si>
-    <t>2G0YC1ZF9Q0QNH</t>
-  </si>
-  <si>
-    <t>2G0YC1ZF9M07PG</t>
-  </si>
-  <si>
-    <t>2G0YC1ZF9N04J2</t>
-  </si>
-  <si>
-    <t>2G0YC1ZF9L0BB8</t>
-  </si>
-  <si>
-    <t>2G0YC1ZF8N05LL</t>
-  </si>
-  <si>
-    <t>2G0YC1ZF8M0KD5</t>
-  </si>
-  <si>
-    <t>2G0YC1ZF8N01D6</t>
-  </si>
-  <si>
-    <t>265131</t>
-  </si>
-  <si>
-    <t>10095541</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>A45B3M934314AE</t>
-  </si>
-  <si>
-    <t>A4PAJA834314E9</t>
-  </si>
-  <si>
     <t>KN0011320</t>
   </si>
   <si>
     <t>KN0011299</t>
   </si>
   <si>
-    <t>HA0219042</t>
-  </si>
-  <si>
-    <t>HA0219052</t>
-  </si>
-  <si>
-    <t>FN00377103</t>
-  </si>
-  <si>
-    <t>FN00376727</t>
-  </si>
-  <si>
-    <t>FN0037617</t>
-  </si>
-  <si>
-    <t>KC0008600</t>
-  </si>
-  <si>
-    <t>KC0009727</t>
-  </si>
-  <si>
-    <t>KC0009706</t>
-  </si>
-  <si>
-    <t>JK0110362</t>
-  </si>
-  <si>
-    <t>JK0110426</t>
-  </si>
-  <si>
-    <t>JK0110361</t>
-  </si>
-  <si>
-    <t>5300955568</t>
-  </si>
-  <si>
-    <t>5300955612</t>
-  </si>
-  <si>
-    <t>5300956784</t>
-  </si>
-  <si>
-    <t>2EC06143197</t>
-  </si>
-  <si>
-    <t>2EC06129961</t>
-  </si>
-  <si>
-    <t>58191157</t>
-  </si>
-  <si>
-    <t>58268876</t>
-  </si>
-  <si>
-    <t>58327372</t>
-  </si>
-  <si>
-    <t>58327490</t>
-  </si>
-  <si>
-    <t>1KE00U2001715</t>
-  </si>
-  <si>
-    <t>C41023119</t>
-  </si>
-  <si>
-    <t>C41019302</t>
-  </si>
-  <si>
-    <t>C41031620</t>
-  </si>
-  <si>
-    <t>C41023113</t>
-  </si>
-  <si>
-    <t>C41023646</t>
-  </si>
-  <si>
-    <t>C41019306</t>
-  </si>
-  <si>
-    <t>C41031618</t>
-  </si>
-  <si>
-    <t>C41020756</t>
-  </si>
-  <si>
-    <t>D05031234</t>
-  </si>
-  <si>
-    <t>C50103519</t>
-  </si>
-  <si>
-    <t>D01004438</t>
-  </si>
-  <si>
-    <t>D01034069</t>
-  </si>
-  <si>
-    <t>D01034070</t>
-  </si>
-  <si>
-    <t>C48010735</t>
-  </si>
-  <si>
-    <t>C54108377</t>
-  </si>
-  <si>
-    <t>C54109137</t>
-  </si>
-  <si>
-    <t>C54110264</t>
-  </si>
-  <si>
-    <t>C54109132</t>
-  </si>
-  <si>
     <t>Available</t>
   </si>
   <si>
     <t>CHECKED OUT</t>
   </si>
   <si>
-    <t xml:space="preserve">Oct 30       More familiarity with device (and possibly items for kit)&amp;nbsp;needed    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S.D.) 10.09.25       View screen doesn&amp;#39;t close properly   Leather is lifting off the bottom of the camera near the battery compartment   Lens cap is clicky    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nbsp;        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 15, 2024    - Circle damage near Tripod mount    &amp;nbsp;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nbsp;    &amp;nbsp;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Lens sticks sometimes when taking it off the body. (S.D.) 2025.10.27    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Osmo was replaced and kit is reactive (SD) 2025.01.15    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ND filter is damaged (heavily scratched on one side)&amp;nbsp;and removed from the kit (S.D) 10.07.25    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing 1 SD Card - Broken Lock (S.D) 08/28/25  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   SD card slot cover isnt attached and could be lost. (SD) 2024.09.10    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mounting place is loose, Tim to get a replacement.S.D. 2025.11.18  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Pan function no longer working, lower nob doesn&amp;#39;t release (S.D.) 08/28/25    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 28, 2023       Broken headstrap; missing cleaning cloth    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 21, 2024       Left eye display has dead pixels    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   There is a hairline crack on the bottom of the right eye lens (S.D.)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025.01.14       Superficial crack found on the top of the headset (SD)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   There is a rip in the side of the bag under the zipper (SD) 2024.11.28    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Reported not functioning on Sept. 18th, 2025 (S.D)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 9, 2024       Plastic baggy missing    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing 1 Mag Clip - S.D.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &amp;nbsp;    &amp;nbsp;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   XLR Cable was lost by Wacera Macharia, used in house XLR to keep kit in circulation, new one has been put on purchase list. (S.D.) 2025.10.29    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 12, 2023       Battery-compartment cover has slightly damaged notches    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 7, 2023       Latch of plastic container is partially broken; container closes but doesn&amp;#39;t lock    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 19       AC adapter missing    </t>
+    <t>Jan 12, 2023 Battery-compartment cover has slightly damaged notches</t>
+  </si>
+  <si>
+    <t>Jan 19 AC adapter missing</t>
+  </si>
+  <si>
+    <t>Feb 7, 2023 Latch of plastic container is partially broken; container closes but doesn't lock</t>
+  </si>
+  <si>
+    <t>Nov 28, 2023 Broken headstrap; missing cleaning cloth</t>
+  </si>
+  <si>
+    <t>(S.D.) 10.09.25 View screen doesn't close properly Leather is lifting off the bottom of the camera near the battery compartment Lens cap is clicky</t>
+  </si>
+  <si>
+    <t>May 15, 2024 - Circle damage near Tripod mount</t>
+  </si>
+  <si>
+    <t>Oct 30 More familiarity with device (and possibly items for kit) needed</t>
+  </si>
+  <si>
+    <t>There is a rip in the side of the bag under the zipper (SD) 2024.11.28</t>
+  </si>
+  <si>
+    <t>SD card slot cover isnt attached and could be lost. (SD) 2024.09.10</t>
+  </si>
+  <si>
+    <t>April 21, 2024 Left eye display has dead pixels</t>
+  </si>
+  <si>
+    <t>Osmo was replaced and kit is reactive (SD) 2025.01.15</t>
+  </si>
+  <si>
+    <t>Mounting place is loose, Tim to get a replacement.S.D. 2025.11.18</t>
+  </si>
+  <si>
+    <t>Pan function no longer working, lower nob doesn't release (S.D.) 08/28/25</t>
+  </si>
+  <si>
+    <t>Reported not functioning on Sept. 18th, 2025 (S.D)</t>
+  </si>
+  <si>
+    <t>There is a hairline crack on the bottom of the right eye lens (S.D.)</t>
+  </si>
+  <si>
+    <t>2025.01.14 Superficial crack found on the top of the headset (SD)</t>
+  </si>
+  <si>
+    <t>Lens sticks sometimes when taking it off the body. (S.D.) 2025.10.27</t>
+  </si>
+  <si>
+    <t>Oct 9, 2024 Plastic baggy missing</t>
+  </si>
+  <si>
+    <t>Missing 1 Mag Clip - S.D.</t>
+  </si>
+  <si>
+    <t>XLR Cable was lost by Wacera Macharia, used in house XLR to keep kit in circulation, new one has been put on purchase list. (S.D.) 2025.10.29</t>
+  </si>
+  <si>
+    <t>Missing 1 SD Card - Broken Lock (S.D) 08/28/25</t>
+  </si>
+  <si>
+    <t>ND filter is damaged (heavily scratched on one side) and removed from the kit (S.D) 10.07.25</t>
   </si>
   <si>
     <t>Item Name</t>
@@ -1426,7 +1420,7 @@
     <t>Add Notes Here for Any Issues Found</t>
   </si>
   <si>
-    <t>Current Notes on Damage</t>
+    <t>LibCal's Current Notes on Damage</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1479,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G226" totalsRowShown="0">
-  <autoFilter ref="A1:G226"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G227" totalsRowShown="0">
+  <autoFilter ref="A1:G227"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Item Name"/>
     <tableColumn id="2" name="Barcode Number"/>
@@ -1494,7 +1488,7 @@
     <tableColumn id="4" name="Serial#"/>
     <tableColumn id="5" name="Checkout Status"/>
     <tableColumn id="6" name="Add Notes Here for Any Issues Found"/>
-    <tableColumn id="7" name="Current Notes on Damage"/>
+    <tableColumn id="7" name="LibCal's Current Notes on Damage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1785,7 +1779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1802,30 +1796,30 @@
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="138.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="127.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1836,24 +1830,33 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="G2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1864,10 +1867,13 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1878,71 +1884,89 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
       <c r="E6" t="s">
-        <v>438</v>
-      </c>
-      <c r="G6" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
       </c>
       <c r="E7" t="s">
         <v>438</v>
+      </c>
+      <c r="G7" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>298</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -1950,134 +1974,158 @@
       <c r="C10" t="s">
         <v>296</v>
       </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
       <c r="E10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
       </c>
       <c r="E11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>318</v>
       </c>
       <c r="E12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>319</v>
       </c>
       <c r="E13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
+        <v>320</v>
       </c>
       <c r="E14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>321</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="G15" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E16" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>438</v>
+      </c>
+      <c r="G17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -2085,13 +2133,16 @@
       <c r="C19" t="s">
         <v>296</v>
       </c>
+      <c r="D19" t="s">
+        <v>325</v>
+      </c>
       <c r="E19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -2099,193 +2150,214 @@
       <c r="C20" t="s">
         <v>297</v>
       </c>
+      <c r="D20" t="s">
+        <v>326</v>
+      </c>
       <c r="E20" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>439</v>
+      </c>
+      <c r="G20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="D21" t="s">
+        <v>327</v>
       </c>
       <c r="E21" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="D22" t="s">
+        <v>328</v>
       </c>
       <c r="E22" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="D23" t="s">
+        <v>329</v>
       </c>
       <c r="E23" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>330</v>
       </c>
       <c r="E24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="E25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="E26" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>439</v>
+      </c>
+      <c r="G26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D27" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="E27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="D28" t="s">
+        <v>334</v>
       </c>
       <c r="E28" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>296</v>
+      </c>
+      <c r="D29" t="s">
+        <v>335</v>
       </c>
       <c r="E29" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="D30" t="s">
+        <v>336</v>
       </c>
       <c r="E30" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="s">
-        <v>297</v>
-      </c>
       <c r="E31" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" t="s">
-        <v>312</v>
-      </c>
       <c r="E32" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -2294,32 +2366,32 @@
         <v>294</v>
       </c>
       <c r="D33" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="E33" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D34" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E34" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -2328,283 +2400,214 @@
         <v>303</v>
       </c>
       <c r="D35" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="E35" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="E36" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D37" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="E37" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D38" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="E38" t="s">
-        <v>438</v>
-      </c>
-      <c r="G38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
       </c>
-      <c r="C39" t="s">
-        <v>296</v>
-      </c>
-      <c r="D39" t="s">
-        <v>319</v>
-      </c>
       <c r="E39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
       </c>
-      <c r="C40" t="s">
-        <v>297</v>
-      </c>
-      <c r="D40" t="s">
-        <v>320</v>
-      </c>
       <c r="E40" t="s">
-        <v>438</v>
-      </c>
-      <c r="G40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="C41" t="s">
-        <v>302</v>
-      </c>
-      <c r="D41" t="s">
-        <v>321</v>
-      </c>
       <c r="E41" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
       </c>
-      <c r="C42" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" t="s">
-        <v>322</v>
-      </c>
       <c r="E42" t="s">
         <v>438</v>
-      </c>
-      <c r="G42" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
       </c>
-      <c r="C43" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" t="s">
-        <v>323</v>
-      </c>
       <c r="E43" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" t="s">
-        <v>300</v>
-      </c>
-      <c r="D44" t="s">
-        <v>324</v>
-      </c>
       <c r="E44" t="s">
         <v>438</v>
-      </c>
-      <c r="G44" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
       </c>
-      <c r="C45" t="s">
-        <v>301</v>
-      </c>
-      <c r="D45" t="s">
-        <v>325</v>
-      </c>
       <c r="E45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G45" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
       </c>
-      <c r="C46" t="s">
-        <v>304</v>
-      </c>
-      <c r="D46" t="s">
-        <v>326</v>
-      </c>
       <c r="E46" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
-      </c>
-      <c r="D47" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E47" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G47" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
-      </c>
-      <c r="D48" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="E48" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E49" t="s">
-        <v>438</v>
-      </c>
-      <c r="G49" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E50" t="s">
         <v>438</v>
@@ -2612,16 +2615,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="E51" t="s">
         <v>438</v>
@@ -2629,50 +2632,44 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E52" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
         <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>302</v>
-      </c>
-      <c r="D53" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="E53" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
         <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
-      </c>
-      <c r="D54" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="E54" t="s">
         <v>438</v>
@@ -2680,16 +2677,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
-      </c>
-      <c r="D55" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s">
         <v>438</v>
@@ -2697,7 +2691,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>123</v>
@@ -2705,42 +2699,36 @@
       <c r="C56" t="s">
         <v>299</v>
       </c>
-      <c r="D56" t="s">
-        <v>336</v>
-      </c>
       <c r="E56" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
         <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="G57" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
         <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="E58" t="s">
         <v>438</v>
@@ -2748,16 +2736,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D59" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E59" t="s">
         <v>438</v>
@@ -2765,16 +2753,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E60" t="s">
         <v>438</v>
@@ -2782,16 +2770,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
         <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E61" t="s">
         <v>438</v>
@@ -2799,16 +2787,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
         <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D62" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E62" t="s">
         <v>438</v>
@@ -2816,16 +2804,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
-      </c>
-      <c r="D63" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="E63" t="s">
         <v>438</v>
@@ -2833,16 +2818,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>294</v>
-      </c>
-      <c r="D64" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="E64" t="s">
         <v>438</v>
@@ -2850,16 +2832,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>295</v>
-      </c>
-      <c r="D65" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="E65" t="s">
         <v>438</v>
@@ -2867,16 +2846,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
         <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>296</v>
-      </c>
-      <c r="D66" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="E66" t="s">
         <v>438</v>
@@ -2884,67 +2860,61 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
         <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>293</v>
-      </c>
-      <c r="D67" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="E67" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>294</v>
-      </c>
-      <c r="D68" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="E68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
         <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E69" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="G69" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
         <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E70" t="s">
         <v>438</v>
@@ -2952,33 +2922,33 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E71" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E72" t="s">
         <v>438</v>
@@ -2986,58 +2956,58 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
         <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E73" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="G73" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
         <v>141</v>
       </c>
-      <c r="C74" t="s">
-        <v>295</v>
-      </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E74" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
         <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E75" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
         <v>143</v>
@@ -3046,15 +3016,15 @@
         <v>296</v>
       </c>
       <c r="D76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E76" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
         <v>144</v>
@@ -3063,131 +3033,140 @@
         <v>297</v>
       </c>
       <c r="D77" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E77" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
         <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E78" t="s">
-        <v>438</v>
-      </c>
-      <c r="G78" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
         <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D79" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E79" t="s">
-        <v>438</v>
-      </c>
-      <c r="G79" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
         <v>147</v>
       </c>
       <c r="C80" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D80" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E80" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
         <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D81" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E81" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="G81" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
         <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>293</v>
+        <v>302</v>
+      </c>
+      <c r="D82" t="s">
+        <v>363</v>
       </c>
       <c r="E82" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
         <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>294</v>
+        <v>303</v>
+      </c>
+      <c r="D83" t="s">
+        <v>364</v>
       </c>
       <c r="E83" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="G83" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
         <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>295</v>
+        <v>305</v>
+      </c>
+      <c r="D84" t="s">
+        <v>365</v>
       </c>
       <c r="E84" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
         <v>152</v>
@@ -3196,12 +3175,12 @@
         <v>296</v>
       </c>
       <c r="E85" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
         <v>153</v>
@@ -3210,18 +3189,18 @@
         <v>297</v>
       </c>
       <c r="E86" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
         <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E87" t="s">
         <v>438</v>
@@ -3229,24 +3208,27 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
         <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="D88" t="s">
+        <v>366</v>
       </c>
       <c r="E88" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G88" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
         <v>156</v>
@@ -3254,50 +3236,59 @@
       <c r="C89" t="s">
         <v>296</v>
       </c>
+      <c r="D89" t="s">
+        <v>366</v>
+      </c>
       <c r="E89" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
         <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="D90" t="s">
+        <v>366</v>
       </c>
       <c r="E90" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
         <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>294</v>
+        <v>298</v>
+      </c>
+      <c r="D91" t="s">
+        <v>366</v>
       </c>
       <c r="E91" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
         <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E92" t="s">
         <v>438</v>
@@ -3305,7 +3296,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
         <v>160</v>
@@ -3313,42 +3304,42 @@
       <c r="C93" t="s">
         <v>294</v>
       </c>
+      <c r="D93" t="s">
+        <v>366</v>
+      </c>
       <c r="E93" t="s">
-        <v>438</v>
-      </c>
-      <c r="G93" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
         <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>295</v>
+        <v>298</v>
+      </c>
+      <c r="D94" t="s">
+        <v>366</v>
       </c>
       <c r="E94" t="s">
-        <v>437</v>
-      </c>
-      <c r="G94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
         <v>162</v>
       </c>
       <c r="C95" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D95" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E95" t="s">
         <v>438</v>
@@ -3356,72 +3347,78 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
         <v>163</v>
       </c>
       <c r="C96" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D96" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E96" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
         <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="D97" t="s">
+        <v>366</v>
       </c>
       <c r="E97" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
         <v>165</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E98" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
         <v>166</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E99" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
         <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
+        <v>298</v>
+      </c>
+      <c r="D100" t="s">
+        <v>366</v>
       </c>
       <c r="E100" t="s">
         <v>438</v>
@@ -3429,44 +3426,50 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
         <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
+        <v>299</v>
+      </c>
+      <c r="D101" t="s">
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
         <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>295</v>
+        <v>300</v>
+      </c>
+      <c r="D102" t="s">
+        <v>366</v>
       </c>
       <c r="E102" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
         <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D103" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E103" t="s">
         <v>438</v>
@@ -3474,13 +3477,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
         <v>171</v>
       </c>
       <c r="C104" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D104" t="s">
         <v>366</v>
@@ -3491,16 +3494,16 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
         <v>172</v>
       </c>
       <c r="C105" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E105" t="s">
         <v>438</v>
@@ -3508,107 +3511,104 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
         <v>173</v>
       </c>
       <c r="C106" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D106" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E106" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
         <v>174</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D107" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E107" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="G107" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B108" t="s">
         <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E108" t="s">
-        <v>438</v>
-      </c>
-      <c r="G108" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B109" t="s">
         <v>176</v>
       </c>
       <c r="C109" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E109" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B110" t="s">
         <v>177</v>
       </c>
       <c r="C110" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D110" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E110" t="s">
-        <v>438</v>
-      </c>
-      <c r="G110" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B111" t="s">
         <v>178</v>
       </c>
       <c r="C111" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D111" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E111" t="s">
         <v>438</v>
@@ -3616,16 +3616,16 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B112" t="s">
         <v>179</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E112" t="s">
         <v>438</v>
@@ -3633,16 +3633,16 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B113" t="s">
         <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D113" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E113" t="s">
         <v>438</v>
@@ -3650,16 +3650,16 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B114" t="s">
         <v>181</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D114" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E114" t="s">
         <v>438</v>
@@ -3667,78 +3667,78 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B115" t="s">
         <v>182</v>
       </c>
       <c r="C115" t="s">
-        <v>293</v>
-      </c>
-      <c r="D115" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="E115" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="G115" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
         <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E116" t="s">
-        <v>437</v>
-      </c>
-      <c r="G116" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
         <v>184</v>
       </c>
       <c r="C117" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D117" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E117" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="G117" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B118" t="s">
         <v>185</v>
       </c>
       <c r="C118" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D118" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E118" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s">
         <v>186</v>
@@ -3747,15 +3747,15 @@
         <v>298</v>
       </c>
       <c r="D119" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E119" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B120" t="s">
         <v>187</v>
@@ -3764,15 +3764,15 @@
         <v>299</v>
       </c>
       <c r="D120" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E120" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s">
         <v>188</v>
@@ -3780,62 +3780,59 @@
       <c r="C121" t="s">
         <v>300</v>
       </c>
+      <c r="D121" t="s">
+        <v>379</v>
+      </c>
       <c r="E121" t="s">
-        <v>437</v>
-      </c>
-      <c r="G121" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
         <v>189</v>
       </c>
       <c r="C122" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D122" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E122" t="s">
         <v>438</v>
-      </c>
-      <c r="G122" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B123" t="s">
         <v>190</v>
       </c>
       <c r="C123" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D123" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E123" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B124" t="s">
         <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D124" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E124" t="s">
         <v>438</v>
@@ -3843,7 +3840,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
         <v>192</v>
@@ -3852,7 +3849,7 @@
         <v>296</v>
       </c>
       <c r="D125" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E125" t="s">
         <v>438</v>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B126" t="s">
         <v>193</v>
@@ -3869,224 +3866,230 @@
         <v>297</v>
       </c>
       <c r="D126" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E126" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B127" t="s">
         <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D127" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E127" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
         <v>195</v>
       </c>
       <c r="C128" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D128" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E128" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B129" t="s">
         <v>196</v>
       </c>
       <c r="C129" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D129" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E129" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B130" t="s">
         <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="D130" t="s">
+        <v>388</v>
       </c>
       <c r="E130" t="s">
-        <v>438</v>
-      </c>
-      <c r="G130" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s">
         <v>198</v>
       </c>
       <c r="C131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D131" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E131" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B132" t="s">
         <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E132" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="G132" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s">
         <v>200</v>
       </c>
       <c r="C133" t="s">
-        <v>293</v>
+        <v>298</v>
+      </c>
+      <c r="D133" t="s">
+        <v>391</v>
       </c>
       <c r="E133" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="G133" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s">
         <v>201</v>
       </c>
       <c r="C134" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E134" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B135" t="s">
         <v>202</v>
       </c>
       <c r="C135" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E135" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B136" t="s">
         <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E136" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
         <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E137" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
         <v>205</v>
       </c>
       <c r="C138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E138" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
         <v>206</v>
       </c>
       <c r="C139" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E139" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
         <v>207</v>
       </c>
       <c r="C140" t="s">
-        <v>293</v>
-      </c>
-      <c r="D140" t="s">
-        <v>392</v>
+        <v>302</v>
       </c>
       <c r="E140" t="s">
         <v>438</v>
@@ -4094,16 +4097,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B141" t="s">
         <v>208</v>
       </c>
       <c r="C141" t="s">
-        <v>294</v>
-      </c>
-      <c r="D141" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="E141" t="s">
         <v>438</v>
@@ -4111,38 +4111,41 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
         <v>209</v>
       </c>
       <c r="C142" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="D142" t="s">
+        <v>392</v>
       </c>
       <c r="E142" t="s">
-        <v>438</v>
-      </c>
-      <c r="G142" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
         <v>210</v>
       </c>
       <c r="C143" t="s">
-        <v>293</v>
+        <v>296</v>
+      </c>
+      <c r="D143" t="s">
+        <v>393</v>
       </c>
       <c r="E143" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B144" t="s">
         <v>211</v>
@@ -4150,231 +4153,216 @@
       <c r="C144" t="s">
         <v>294</v>
       </c>
+      <c r="D144" t="s">
+        <v>394</v>
+      </c>
       <c r="E144" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B145" t="s">
         <v>212</v>
       </c>
       <c r="C145" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D145" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E145" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B146" t="s">
         <v>213</v>
       </c>
       <c r="C146" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D146" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E146" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B147" t="s">
         <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>293</v>
+        <v>297</v>
+      </c>
+      <c r="D147" t="s">
+        <v>397</v>
       </c>
       <c r="E147" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
         <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>293</v>
-      </c>
-      <c r="D148" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="E148" t="s">
         <v>438</v>
       </c>
-      <c r="G148" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B149" t="s">
         <v>216</v>
       </c>
       <c r="C149" t="s">
-        <v>294</v>
-      </c>
-      <c r="D149" t="s">
-        <v>393</v>
+        <v>296</v>
       </c>
       <c r="E149" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B150" t="s">
         <v>217</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
-      </c>
-      <c r="D150" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="E150" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B151" t="s">
         <v>218</v>
       </c>
       <c r="C151" t="s">
-        <v>296</v>
-      </c>
-      <c r="D151" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="E151" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B152" t="s">
         <v>219</v>
       </c>
       <c r="C152" t="s">
-        <v>297</v>
-      </c>
-      <c r="D152" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="E152" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B153" t="s">
         <v>220</v>
       </c>
+      <c r="C153" t="s">
+        <v>300</v>
+      </c>
       <c r="E153" t="s">
         <v>438</v>
       </c>
-      <c r="G153" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B154" t="s">
         <v>221</v>
       </c>
       <c r="C154" t="s">
-        <v>293</v>
-      </c>
-      <c r="D154" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="E154" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B155" t="s">
         <v>222</v>
       </c>
       <c r="C155" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D155" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E155" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B156" t="s">
         <v>223</v>
       </c>
       <c r="C156" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D156" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E156" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B157" t="s">
         <v>224</v>
       </c>
       <c r="C157" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D157" t="s">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="E157" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B158" t="s">
         <v>225</v>
@@ -4383,32 +4371,29 @@
         <v>294</v>
       </c>
       <c r="D158" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E158" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B159" t="s">
         <v>226</v>
       </c>
       <c r="C159" t="s">
-        <v>293</v>
-      </c>
-      <c r="D159" t="s">
-        <v>400</v>
+        <v>294</v>
       </c>
       <c r="E159" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B160" t="s">
         <v>227</v>
@@ -4416,73 +4401,70 @@
       <c r="C160" t="s">
         <v>296</v>
       </c>
-      <c r="D160" t="s">
-        <v>401</v>
-      </c>
       <c r="E160" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B161" t="s">
         <v>228</v>
       </c>
       <c r="C161" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D161" t="s">
         <v>402</v>
       </c>
       <c r="E161" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B162" t="s">
         <v>229</v>
       </c>
       <c r="C162" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D162" t="s">
         <v>403</v>
       </c>
       <c r="E162" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B163" t="s">
         <v>230</v>
       </c>
       <c r="C163" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D163" t="s">
         <v>404</v>
       </c>
       <c r="E163" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B164" t="s">
         <v>231</v>
       </c>
       <c r="C164" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D164" t="s">
         <v>405</v>
@@ -4491,15 +4473,15 @@
         <v>438</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B165" t="s">
         <v>232</v>
       </c>
       <c r="C165" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D165" t="s">
         <v>406</v>
@@ -4508,15 +4490,15 @@
         <v>438</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B166" t="s">
         <v>233</v>
       </c>
       <c r="C166" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D166" t="s">
         <v>407</v>
@@ -4524,79 +4506,64 @@
       <c r="E166" t="s">
         <v>438</v>
       </c>
-      <c r="G166" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B167" t="s">
         <v>234</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
-      </c>
-      <c r="D167" t="s">
-        <v>408</v>
+        <v>294</v>
       </c>
       <c r="E167" t="s">
         <v>438</v>
       </c>
-      <c r="G167" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>51</v>
       </c>
       <c r="B168" t="s">
         <v>235</v>
       </c>
+      <c r="C168" t="s">
+        <v>296</v>
+      </c>
       <c r="E168" t="s">
-        <v>437</v>
-      </c>
-      <c r="G168" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B169" t="s">
         <v>236</v>
       </c>
       <c r="C169" t="s">
-        <v>296</v>
-      </c>
-      <c r="D169" t="s">
-        <v>409</v>
+        <v>297</v>
       </c>
       <c r="E169" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B170" t="s">
         <v>237</v>
       </c>
       <c r="C170" t="s">
-        <v>294</v>
-      </c>
-      <c r="D170" t="s">
-        <v>410</v>
+        <v>298</v>
       </c>
       <c r="E170" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>52</v>
       </c>
@@ -4604,69 +4571,69 @@
         <v>238</v>
       </c>
       <c r="C171" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D171" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E171" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
         <v>239</v>
       </c>
       <c r="C172" t="s">
-        <v>293</v>
+        <v>296</v>
+      </c>
+      <c r="D172" t="s">
+        <v>409</v>
       </c>
       <c r="E172" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B173" t="s">
         <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D173" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E173" t="s">
         <v>438</v>
       </c>
-      <c r="G173" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B174" t="s">
         <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D174" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E174" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B175" t="s">
         <v>242</v>
@@ -4675,32 +4642,32 @@
         <v>294</v>
       </c>
       <c r="D175" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E175" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B176" t="s">
         <v>243</v>
       </c>
       <c r="C176" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D176" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E176" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B177" t="s">
         <v>244</v>
@@ -4708,264 +4675,282 @@
       <c r="C177" t="s">
         <v>294</v>
       </c>
-      <c r="D177" t="s">
-        <v>416</v>
-      </c>
       <c r="E177" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B178" t="s">
         <v>245</v>
       </c>
       <c r="C178" t="s">
-        <v>293</v>
-      </c>
-      <c r="D178" t="s">
-        <v>417</v>
+        <v>296</v>
       </c>
       <c r="E178" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B179" t="s">
         <v>246</v>
       </c>
       <c r="C179" t="s">
-        <v>293</v>
-      </c>
-      <c r="D179" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="E179" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B180" t="s">
         <v>247</v>
       </c>
       <c r="C180" t="s">
-        <v>296</v>
-      </c>
-      <c r="D180" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="E180" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B181" t="s">
         <v>248</v>
       </c>
       <c r="C181" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D181" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="E181" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>439</v>
+      </c>
+      <c r="G181" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
         <v>249</v>
       </c>
       <c r="C182" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D182" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="E182" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B183" t="s">
         <v>250</v>
       </c>
       <c r="C183" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E183" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B184" t="s">
         <v>251</v>
       </c>
       <c r="C184" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E184" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B185" t="s">
         <v>252</v>
       </c>
       <c r="C185" t="s">
+        <v>296</v>
+      </c>
+      <c r="D185" t="s">
+        <v>416</v>
+      </c>
+      <c r="E185" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" t="s">
+        <v>253</v>
+      </c>
+      <c r="C186" t="s">
+        <v>297</v>
+      </c>
+      <c r="D186" t="s">
+        <v>416</v>
+      </c>
+      <c r="E186" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>57</v>
+      </c>
+      <c r="B187" t="s">
+        <v>254</v>
+      </c>
+      <c r="C187" t="s">
+        <v>294</v>
+      </c>
+      <c r="D187" t="s">
+        <v>417</v>
+      </c>
+      <c r="E187" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>57</v>
+      </c>
+      <c r="B188" t="s">
+        <v>255</v>
+      </c>
+      <c r="C188" t="s">
+        <v>296</v>
+      </c>
+      <c r="D188" t="s">
+        <v>418</v>
+      </c>
+      <c r="E188" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>57</v>
+      </c>
+      <c r="B189" t="s">
+        <v>256</v>
+      </c>
+      <c r="C189" t="s">
+        <v>297</v>
+      </c>
+      <c r="D189" t="s">
+        <v>419</v>
+      </c>
+      <c r="E189" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>57</v>
+      </c>
+      <c r="B190" t="s">
+        <v>257</v>
+      </c>
+      <c r="C190" t="s">
+        <v>298</v>
+      </c>
+      <c r="D190" t="s">
+        <v>420</v>
+      </c>
+      <c r="E190" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>57</v>
+      </c>
+      <c r="B191" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" t="s">
         <v>299</v>
       </c>
-      <c r="E185" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>58</v>
-      </c>
-      <c r="E186" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
-        <v>59</v>
-      </c>
-      <c r="B187" t="s">
-        <v>253</v>
-      </c>
-      <c r="C187" t="s">
-        <v>293</v>
-      </c>
-      <c r="E187" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" t="s">
-        <v>59</v>
-      </c>
-      <c r="B188" t="s">
-        <v>254</v>
-      </c>
-      <c r="C188" t="s">
-        <v>294</v>
-      </c>
-      <c r="E188" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" t="s">
-        <v>59</v>
-      </c>
-      <c r="B189" t="s">
-        <v>255</v>
-      </c>
-      <c r="C189" t="s">
-        <v>295</v>
-      </c>
-      <c r="E189" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
-        <v>59</v>
-      </c>
-      <c r="B190" t="s">
-        <v>256</v>
-      </c>
-      <c r="C190" t="s">
-        <v>296</v>
-      </c>
-      <c r="E190" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>60</v>
-      </c>
-      <c r="B191" t="s">
-        <v>257</v>
-      </c>
-      <c r="C191" t="s">
-        <v>293</v>
-      </c>
       <c r="D191" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="E191" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B192" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C192" t="s">
-        <v>294</v>
+        <v>300</v>
+      </c>
+      <c r="D192" t="s">
+        <v>422</v>
       </c>
       <c r="E192" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B193" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C193" t="s">
         <v>296</v>
       </c>
       <c r="D193" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="E193" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B194" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C194" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D194" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="E194" t="s">
         <v>438</v>
@@ -4973,36 +4958,36 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B195" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C195" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D195" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="E195" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B196" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C196" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D196" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="E196" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5010,16 +4995,16 @@
         <v>60</v>
       </c>
       <c r="B197" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C197" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D197" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="E197" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5027,30 +5012,30 @@
         <v>60</v>
       </c>
       <c r="B198" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C198" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D198" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="E198" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B199" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C199" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D199" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="E199" t="s">
         <v>438</v>
@@ -5058,164 +5043,188 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B200" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="C200" t="s">
+        <v>296</v>
+      </c>
+      <c r="D200" t="s">
+        <v>429</v>
       </c>
       <c r="E200" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="C201" t="s">
+        <v>294</v>
+      </c>
+      <c r="D201" t="s">
+        <v>430</v>
       </c>
       <c r="E201" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B202" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="C202" t="s">
+        <v>297</v>
       </c>
       <c r="D202" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="E202" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="C203" t="s">
+        <v>294</v>
+      </c>
+      <c r="D203" t="s">
+        <v>270</v>
       </c>
       <c r="E203" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="C204" t="s">
+        <v>296</v>
+      </c>
+      <c r="D204" t="s">
+        <v>432</v>
       </c>
       <c r="E204" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="C205" t="s">
+        <v>294</v>
       </c>
       <c r="E205" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="G205" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="C206" t="s">
+        <v>298</v>
       </c>
       <c r="E206" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="C207" t="s">
+        <v>297</v>
       </c>
       <c r="E207" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C208" t="s">
-        <v>293</v>
-      </c>
-      <c r="D208" t="s">
-        <v>419</v>
+        <v>296</v>
       </c>
       <c r="E208" t="s">
-        <v>437</v>
-      </c>
-      <c r="G208" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C209" t="s">
         <v>294</v>
       </c>
-      <c r="D209" t="s">
-        <v>420</v>
-      </c>
       <c r="E209" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C210" t="s">
-        <v>295</v>
-      </c>
-      <c r="D210" t="s">
-        <v>421</v>
+        <v>296</v>
       </c>
       <c r="E210" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B211" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C211" t="s">
         <v>297</v>
       </c>
-      <c r="D211" t="s">
-        <v>422</v>
-      </c>
       <c r="E211" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5223,16 +5232,13 @@
         <v>64</v>
       </c>
       <c r="B212" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C212" t="s">
-        <v>302</v>
-      </c>
-      <c r="D212" t="s">
-        <v>423</v>
+        <v>294</v>
       </c>
       <c r="E212" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5240,16 +5246,13 @@
         <v>64</v>
       </c>
       <c r="B213" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C213" t="s">
-        <v>299</v>
-      </c>
-      <c r="D213" t="s">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="E213" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5257,53 +5260,47 @@
         <v>64</v>
       </c>
       <c r="B214" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C214" t="s">
-        <v>300</v>
-      </c>
-      <c r="D214" t="s">
-        <v>425</v>
+        <v>297</v>
       </c>
       <c r="E214" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C215" t="s">
-        <v>301</v>
-      </c>
-      <c r="D215" t="s">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="E215" t="s">
-        <v>437</v>
-      </c>
-      <c r="G215" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B216" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C216" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D216" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E216" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="G216" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5311,13 +5308,13 @@
         <v>65</v>
       </c>
       <c r="B217" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C217" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D217" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E217" t="s">
         <v>438</v>
@@ -5325,19 +5322,19 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B218" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C218" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D218" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E218" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5345,16 +5342,13 @@
         <v>66</v>
       </c>
       <c r="B219" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C219" t="s">
-        <v>295</v>
-      </c>
-      <c r="D219" t="s">
-        <v>430</v>
+        <v>294</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5362,13 +5356,10 @@
         <v>66</v>
       </c>
       <c r="B220" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C220" t="s">
-        <v>294</v>
-      </c>
-      <c r="D220" t="s">
-        <v>431</v>
+        <v>296</v>
       </c>
       <c r="E220" t="s">
         <v>438</v>
@@ -5376,103 +5367,99 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B221" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C221" t="s">
-        <v>293</v>
-      </c>
-      <c r="D221" t="s">
-        <v>432</v>
+        <v>297</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
-      </c>
-      <c r="G221" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B222" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C222" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B223" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C223" t="s">
-        <v>293</v>
-      </c>
-      <c r="D223" t="s">
-        <v>433</v>
+        <v>299</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B224" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C224" t="s">
-        <v>294</v>
-      </c>
-      <c r="D224" t="s">
-        <v>434</v>
+        <v>300</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B225" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C225" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D225" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B226" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C226" t="s">
         <v>296</v>
       </c>
       <c r="D226" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E226" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>68</v>
+      </c>
+      <c r="E227" t="s">
         <v>438</v>
       </c>
     </row>
